--- a/Code/Results/Cases/Case_0_132/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_132/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9211548577842709</v>
+        <v>1.129247026424492</v>
       </c>
       <c r="D2">
-        <v>0.9372930790956233</v>
+        <v>1.130722603127266</v>
       </c>
       <c r="E2">
-        <v>0.938763893909757</v>
+        <v>1.127063990637531</v>
       </c>
       <c r="F2">
-        <v>0.9429376893739704</v>
+        <v>1.140981927338763</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.02359499962809</v>
       </c>
       <c r="J2">
-        <v>0.945979842680824</v>
+        <v>1.133896276542335</v>
       </c>
       <c r="K2">
-        <v>0.9497011328626327</v>
+        <v>1.133270882220993</v>
       </c>
       <c r="L2">
-        <v>0.9511478297287933</v>
+        <v>1.129620971002904</v>
       </c>
       <c r="M2">
-        <v>0.9552537106274041</v>
+        <v>1.143506125943593</v>
       </c>
       <c r="N2">
-        <v>0.9473232425628353</v>
+        <v>1.135506539314746</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9548872257090751</v>
+        <v>1.133225707344483</v>
       </c>
       <c r="D3">
-        <v>0.9686653117937289</v>
+        <v>1.13445635675796</v>
       </c>
       <c r="E3">
-        <v>0.9693133699795943</v>
+        <v>1.130691390990534</v>
       </c>
       <c r="F3">
-        <v>0.975017669452146</v>
+        <v>1.144817092886285</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.023504579208684</v>
       </c>
       <c r="J3">
-        <v>0.9766881117004441</v>
+        <v>1.13754103835214</v>
       </c>
       <c r="K3">
-        <v>0.9797154724465302</v>
+        <v>1.136825465177157</v>
       </c>
       <c r="L3">
-        <v>0.9803545561207692</v>
+        <v>1.133068768889232</v>
       </c>
       <c r="M3">
-        <v>0.9859805086244919</v>
+        <v>1.147163744512368</v>
       </c>
       <c r="N3">
-        <v>0.9780751208467509</v>
+        <v>1.139156477104381</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9739141511971756</v>
+        <v>1.135778047712897</v>
       </c>
       <c r="D4">
-        <v>0.9863805688012117</v>
+        <v>1.136850916933997</v>
       </c>
       <c r="E4">
-        <v>0.9865656360145237</v>
+        <v>1.13301740081249</v>
       </c>
       <c r="F4">
-        <v>0.9931374290622201</v>
+        <v>1.147277086463472</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.023443335729026</v>
       </c>
       <c r="J4">
-        <v>0.9940095217140519</v>
+        <v>1.139877754619948</v>
       </c>
       <c r="K4">
-        <v>0.9966461960003294</v>
+        <v>1.139104018246758</v>
       </c>
       <c r="L4">
-        <v>0.9968289526412317</v>
+        <v>1.135278475611616</v>
       </c>
       <c r="M4">
-        <v>1.003319391057342</v>
+        <v>1.149508788926257</v>
       </c>
       <c r="N4">
-        <v>0.9954211292493715</v>
+        <v>1.141496511777315</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9814051706834592</v>
+        <v>1.136845932583763</v>
       </c>
       <c r="D5">
-        <v>0.9933582874206079</v>
+        <v>1.137852628575423</v>
       </c>
       <c r="E5">
-        <v>0.9933610807202263</v>
+        <v>1.133990353537638</v>
       </c>
       <c r="F5">
-        <v>1.000275581028518</v>
+        <v>1.148306265106009</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.023416932628352</v>
       </c>
       <c r="J5">
-        <v>1.000828094108577</v>
+        <v>1.140855084841424</v>
       </c>
       <c r="K5">
-        <v>1.003310907375268</v>
+        <v>1.140056938218033</v>
       </c>
       <c r="L5">
-        <v>1.00331366726142</v>
+        <v>1.136202508391054</v>
       </c>
       <c r="M5">
-        <v>1.010146164435012</v>
+        <v>1.150489622383769</v>
       </c>
       <c r="N5">
-        <v>1.002249384798798</v>
+        <v>1.142475229919806</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9826365940549514</v>
+        <v>1.137024940099218</v>
       </c>
       <c r="D6">
-        <v>0.9945054801310528</v>
+        <v>1.138020534239541</v>
       </c>
       <c r="E6">
-        <v>0.9944783050924094</v>
+        <v>1.134153433827011</v>
       </c>
       <c r="F6">
-        <v>1.00144921418946</v>
+        <v>1.148478780285696</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045370270238388</v>
+        <v>1.023412460900047</v>
       </c>
       <c r="J6">
-        <v>1.001948896741564</v>
+        <v>1.141018892970115</v>
       </c>
       <c r="K6">
-        <v>1.004406409915894</v>
+        <v>1.140216650092962</v>
       </c>
       <c r="L6">
-        <v>1.004379557628086</v>
+        <v>1.136357373131804</v>
       </c>
       <c r="M6">
-        <v>1.011268385205036</v>
+        <v>1.150654018841646</v>
       </c>
       <c r="N6">
-        <v>1.003371779100082</v>
+        <v>1.142639270674829</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9740160801549315</v>
+        <v>1.135792336721854</v>
       </c>
       <c r="D7">
-        <v>0.9864755024912898</v>
+        <v>1.136864321128302</v>
       </c>
       <c r="E7">
-        <v>0.9866580897631261</v>
+        <v>1.133030420500042</v>
       </c>
       <c r="F7">
-        <v>0.9932345410996926</v>
+        <v>1.147290857830439</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874439</v>
+        <v>1.02344298551034</v>
       </c>
       <c r="J7">
-        <v>0.9941023057826276</v>
+        <v>1.139890833281398</v>
       </c>
       <c r="K7">
-        <v>0.996736886918754</v>
+        <v>1.13911677057864</v>
       </c>
       <c r="L7">
-        <v>0.996917195889055</v>
+        <v>1.135290841737638</v>
       </c>
       <c r="M7">
-        <v>1.003412281775655</v>
+        <v>1.149521914390006</v>
       </c>
       <c r="N7">
-        <v>0.9955140450819671</v>
+        <v>1.141509609011964</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9332614136582156</v>
+        <v>1.130596332553638</v>
       </c>
       <c r="D8">
-        <v>0.9485467952280187</v>
+        <v>1.131988982407889</v>
       </c>
       <c r="E8">
-        <v>0.9497218599358376</v>
+        <v>1.128294369322829</v>
       </c>
       <c r="F8">
-        <v>0.9544441415995102</v>
+        <v>1.142282620110822</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.023565007130014</v>
       </c>
       <c r="J8">
-        <v>0.9570001026673091</v>
+        <v>1.135132633570558</v>
       </c>
       <c r="K8">
-        <v>0.9604719882733178</v>
+        <v>1.134476721655371</v>
       </c>
       <c r="L8">
-        <v>0.9616288838677642</v>
+        <v>1.130790667433168</v>
       </c>
       <c r="M8">
-        <v>0.9662787238388263</v>
+        <v>1.144746826078858</v>
       </c>
       <c r="N8">
-        <v>0.9583591525825425</v>
+        <v>1.136744652111761</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.8214189994278712</v>
+        <v>1.121262506868626</v>
       </c>
       <c r="D9">
-        <v>0.8449307165168801</v>
+        <v>1.123226112099651</v>
       </c>
       <c r="E9">
-        <v>0.8488815242637867</v>
+        <v>1.119779189702401</v>
       </c>
       <c r="F9">
-        <v>0.8485360752040605</v>
+        <v>1.133283969947179</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923609578788</v>
+        <v>1.023759139049229</v>
       </c>
       <c r="J9">
-        <v>0.8553523262856808</v>
+        <v>1.126574254515701</v>
       </c>
       <c r="K9">
-        <v>0.8611651621539327</v>
+        <v>1.126128148900325</v>
       </c>
       <c r="L9">
-        <v>0.8650166867681133</v>
+        <v>1.122690686595267</v>
       </c>
       <c r="M9">
-        <v>0.8646798690365216</v>
+        <v>1.136158758830101</v>
       </c>
       <c r="N9">
-        <v>0.8565670246992898</v>
+        <v>1.128174119176986</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8214189994278712</v>
+        <v>1.114908459795777</v>
       </c>
       <c r="D10">
-        <v>0.8449307165168801</v>
+        <v>1.11725740358316</v>
       </c>
       <c r="E10">
-        <v>0.8488815242637867</v>
+        <v>1.113977409134183</v>
       </c>
       <c r="F10">
-        <v>0.8485360752040605</v>
+        <v>1.127156767337608</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044923609578788</v>
+        <v>1.023874603872166</v>
       </c>
       <c r="J10">
-        <v>0.8553523262856808</v>
+        <v>1.120740681761561</v>
       </c>
       <c r="K10">
-        <v>0.8611651621539327</v>
+        <v>1.120435767421265</v>
       </c>
       <c r="L10">
-        <v>0.8650166867681133</v>
+        <v>1.117165735317105</v>
       </c>
       <c r="M10">
-        <v>0.8646798690365216</v>
+        <v>1.130305446719623</v>
       </c>
       <c r="N10">
-        <v>0.8565670246992898</v>
+        <v>1.122332262080415</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8214189994278712</v>
+        <v>1.112123128571422</v>
       </c>
       <c r="D11">
-        <v>0.8449307165168801</v>
+        <v>1.114640213447459</v>
       </c>
       <c r="E11">
-        <v>0.8488815242637867</v>
+        <v>1.111432994774481</v>
       </c>
       <c r="F11">
-        <v>0.8485360752040605</v>
+        <v>1.124470582955494</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044923609578788</v>
+        <v>1.023921309042974</v>
       </c>
       <c r="J11">
-        <v>0.8553523262856808</v>
+        <v>1.118181747421177</v>
       </c>
       <c r="K11">
-        <v>0.8611651621539327</v>
+        <v>1.117938338832568</v>
       </c>
       <c r="L11">
-        <v>0.8650166867681133</v>
+        <v>1.114741274509411</v>
       </c>
       <c r="M11">
-        <v>0.8646798690365216</v>
+        <v>1.127737978669278</v>
       </c>
       <c r="N11">
-        <v>0.8565670246992898</v>
+        <v>1.119769693759755</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8214189994278712</v>
+        <v>1.111083180531546</v>
       </c>
       <c r="D12">
-        <v>0.8449307165168801</v>
+        <v>1.113662928943056</v>
       </c>
       <c r="E12">
-        <v>0.8488815242637867</v>
+        <v>1.110482822726677</v>
       </c>
       <c r="F12">
-        <v>0.8485360752040605</v>
+        <v>1.123467611216251</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044923609578788</v>
+        <v>1.023938164268118</v>
       </c>
       <c r="J12">
-        <v>0.8553523262856808</v>
+        <v>1.117226064858701</v>
       </c>
       <c r="K12">
-        <v>0.8611651621539327</v>
+        <v>1.117005562577924</v>
       </c>
       <c r="L12">
-        <v>0.8650166867681133</v>
+        <v>1.113835678015827</v>
       </c>
       <c r="M12">
-        <v>0.8646798690365216</v>
+        <v>1.126779128449706</v>
       </c>
       <c r="N12">
-        <v>0.8565670246992898</v>
+        <v>1.118812654018421</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8214189994278712</v>
+        <v>1.111306499163177</v>
       </c>
       <c r="D13">
-        <v>0.8449307165168801</v>
+        <v>1.113872796351518</v>
       </c>
       <c r="E13">
-        <v>0.8488815242637867</v>
+        <v>1.110686870689612</v>
       </c>
       <c r="F13">
-        <v>0.8485360752040605</v>
+        <v>1.123682991404904</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044923609578788</v>
+        <v>1.023934571058996</v>
       </c>
       <c r="J13">
-        <v>0.8553523262856808</v>
+        <v>1.117431300211458</v>
       </c>
       <c r="K13">
-        <v>0.8611651621539327</v>
+        <v>1.117205881638883</v>
       </c>
       <c r="L13">
-        <v>0.8650166867681133</v>
+        <v>1.114030163379013</v>
       </c>
       <c r="M13">
-        <v>0.8646798690365216</v>
+        <v>1.126985043176906</v>
       </c>
       <c r="N13">
-        <v>0.8565670246992898</v>
+        <v>1.11901818082892</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8214189994278712</v>
+        <v>1.112037276777107</v>
       </c>
       <c r="D14">
-        <v>0.8449307165168801</v>
+        <v>1.114559537098778</v>
       </c>
       <c r="E14">
-        <v>0.8488815242637867</v>
+        <v>1.11135455787676</v>
       </c>
       <c r="F14">
-        <v>0.8485360752040605</v>
+        <v>1.124387784538379</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044923609578788</v>
+        <v>1.023922712353274</v>
       </c>
       <c r="J14">
-        <v>0.8553523262856808</v>
+        <v>1.118102857435525</v>
       </c>
       <c r="K14">
-        <v>0.8611651621539327</v>
+        <v>1.117861341029695</v>
       </c>
       <c r="L14">
-        <v>0.8650166867681133</v>
+        <v>1.114666521803922</v>
       </c>
       <c r="M14">
-        <v>0.8646798690365216</v>
+        <v>1.127658826799748</v>
       </c>
       <c r="N14">
-        <v>0.8565670246992898</v>
+        <v>1.119690691741274</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8214189994278712</v>
+        <v>1.112486816273384</v>
       </c>
       <c r="D15">
-        <v>0.8449307165168801</v>
+        <v>1.114981972111548</v>
       </c>
       <c r="E15">
-        <v>0.8488815242637867</v>
+        <v>1.111765264183705</v>
       </c>
       <c r="F15">
-        <v>0.8485360752040605</v>
+        <v>1.124821334163844</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044923609578788</v>
+        <v>1.023915340507297</v>
       </c>
       <c r="J15">
-        <v>0.8553523262856808</v>
+        <v>1.118515932557203</v>
       </c>
       <c r="K15">
-        <v>0.8611651621539327</v>
+        <v>1.118264505889456</v>
       </c>
       <c r="L15">
-        <v>0.8650166867681133</v>
+        <v>1.115057928211831</v>
       </c>
       <c r="M15">
-        <v>0.8646798690365216</v>
+        <v>1.128073273966436</v>
       </c>
       <c r="N15">
-        <v>0.8565670246992898</v>
+        <v>1.120104353477005</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8214189994278712</v>
+        <v>1.11509257622649</v>
       </c>
       <c r="D16">
-        <v>0.8449307165168801</v>
+        <v>1.117430389432967</v>
       </c>
       <c r="E16">
-        <v>0.8488815242637867</v>
+        <v>1.114145576023771</v>
       </c>
       <c r="F16">
-        <v>0.8485360752040605</v>
+        <v>1.127334324005294</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044923609578788</v>
+        <v>1.023871434968932</v>
       </c>
       <c r="J16">
-        <v>0.8553523262856808</v>
+        <v>1.120909796084229</v>
       </c>
       <c r="K16">
-        <v>0.8611651621539327</v>
+        <v>1.120600807997515</v>
       </c>
       <c r="L16">
-        <v>0.8650166867681133</v>
+        <v>1.117325943637882</v>
       </c>
       <c r="M16">
-        <v>0.8646798690365216</v>
+        <v>1.130475127691015</v>
       </c>
       <c r="N16">
-        <v>0.8565670246992898</v>
+        <v>1.122501616564819</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8214189994278712</v>
+        <v>1.116717830811897</v>
       </c>
       <c r="D17">
-        <v>0.8449307165168801</v>
+        <v>1.118957302163238</v>
       </c>
       <c r="E17">
-        <v>0.8488815242637867</v>
+        <v>1.115629904598439</v>
       </c>
       <c r="F17">
-        <v>0.8485360752040605</v>
+        <v>1.128901640234791</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044923609578788</v>
+        <v>1.023843013862359</v>
       </c>
       <c r="J17">
-        <v>0.8553523262856808</v>
+        <v>1.122402420768214</v>
       </c>
       <c r="K17">
-        <v>0.8611651621539327</v>
+        <v>1.122057428110147</v>
       </c>
       <c r="L17">
-        <v>0.8650166867681133</v>
+        <v>1.118739858982833</v>
       </c>
       <c r="M17">
-        <v>0.8646798690365216</v>
+        <v>1.131972768117045</v>
       </c>
       <c r="N17">
-        <v>0.8565670246992898</v>
+        <v>1.123996360947062</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.8214189994278712</v>
+        <v>1.1176625521672</v>
       </c>
       <c r="D18">
-        <v>0.8449307165168801</v>
+        <v>1.1198447854996</v>
       </c>
       <c r="E18">
-        <v>0.8488815242637867</v>
+        <v>1.116492596651915</v>
       </c>
       <c r="F18">
-        <v>0.8485360752040605</v>
+        <v>1.129812655341854</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044923609578788</v>
+        <v>1.023826118601775</v>
       </c>
       <c r="J18">
-        <v>0.8553523262856808</v>
+        <v>1.123269879347639</v>
       </c>
       <c r="K18">
-        <v>0.8611651621539327</v>
+        <v>1.122903921094693</v>
       </c>
       <c r="L18">
-        <v>0.8650166867681133</v>
+        <v>1.11956148788879</v>
       </c>
       <c r="M18">
-        <v>0.8646798690365216</v>
+        <v>1.132843153594855</v>
       </c>
       <c r="N18">
-        <v>0.8565670246992898</v>
+        <v>1.124865051417169</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.8214189994278712</v>
+        <v>1.11798413172366</v>
       </c>
       <c r="D19">
-        <v>0.8449307165168801</v>
+        <v>1.120146868805908</v>
       </c>
       <c r="E19">
-        <v>0.8488815242637867</v>
+        <v>1.116786234623622</v>
       </c>
       <c r="F19">
-        <v>0.8485360752040605</v>
+        <v>1.130122756596417</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044923609578788</v>
+        <v>1.023820303822167</v>
       </c>
       <c r="J19">
-        <v>0.8553523262856808</v>
+        <v>1.123565130407845</v>
       </c>
       <c r="K19">
-        <v>0.8611651621539327</v>
+        <v>1.123192029264545</v>
       </c>
       <c r="L19">
-        <v>0.8650166867681133</v>
+        <v>1.11984112549347</v>
       </c>
       <c r="M19">
-        <v>0.8646798690365216</v>
+        <v>1.133139402869379</v>
       </c>
       <c r="N19">
-        <v>0.8565670246992898</v>
+        <v>1.125160721767746</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.8214189994278712</v>
+        <v>1.116543795541704</v>
       </c>
       <c r="D20">
-        <v>0.8449307165168801</v>
+        <v>1.118793805201203</v>
       </c>
       <c r="E20">
-        <v>0.8488815242637867</v>
+        <v>1.115470971575038</v>
       </c>
       <c r="F20">
-        <v>0.8485360752040605</v>
+        <v>1.128733812004513</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044923609578788</v>
+        <v>1.023846096030143</v>
       </c>
       <c r="J20">
-        <v>0.8553523262856808</v>
+        <v>1.122242605172769</v>
       </c>
       <c r="K20">
-        <v>0.8611651621539327</v>
+        <v>1.121901471782342</v>
       </c>
       <c r="L20">
-        <v>0.8650166867681133</v>
+        <v>1.118588479788393</v>
       </c>
       <c r="M20">
-        <v>0.8646798690365216</v>
+        <v>1.13181241424466</v>
       </c>
       <c r="N20">
-        <v>0.8565670246992898</v>
+        <v>1.123836318395141</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8214189994278712</v>
+        <v>1.111822230749608</v>
       </c>
       <c r="D21">
-        <v>0.8449307165168801</v>
+        <v>1.114357452952329</v>
       </c>
       <c r="E21">
-        <v>0.8488815242637867</v>
+        <v>1.111158082263437</v>
       </c>
       <c r="F21">
-        <v>0.8485360752040605</v>
+        <v>1.124180386101842</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044923609578788</v>
+        <v>1.02392621804881</v>
       </c>
       <c r="J21">
-        <v>0.8553523262856808</v>
+        <v>1.117905245458828</v>
       </c>
       <c r="K21">
-        <v>0.8611651621539327</v>
+        <v>1.117668467757861</v>
       </c>
       <c r="L21">
-        <v>0.8650166867681133</v>
+        <v>1.114479271137417</v>
       </c>
       <c r="M21">
-        <v>0.8646798690365216</v>
+        <v>1.127460559144061</v>
       </c>
       <c r="N21">
-        <v>0.8565670246992898</v>
+        <v>1.119492799132904</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8214189994278712</v>
+        <v>1.10882250157018</v>
       </c>
       <c r="D22">
-        <v>0.8449307165168801</v>
+        <v>1.111538262170433</v>
       </c>
       <c r="E22">
-        <v>0.8488815242637867</v>
+        <v>1.108416985200755</v>
       </c>
       <c r="F22">
-        <v>0.8485360752040605</v>
+        <v>1.121287238534612</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044923609578788</v>
+        <v>1.023973741382756</v>
       </c>
       <c r="J22">
-        <v>0.8553523262856808</v>
+        <v>1.115148083048271</v>
       </c>
       <c r="K22">
-        <v>0.8611651621539327</v>
+        <v>1.11497726954908</v>
       </c>
       <c r="L22">
-        <v>0.8650166867681133</v>
+        <v>1.111866352336078</v>
       </c>
       <c r="M22">
-        <v>0.8646798690365216</v>
+        <v>1.124694295365068</v>
       </c>
       <c r="N22">
-        <v>0.8565670246992898</v>
+        <v>1.116731721235472</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8214189994278712</v>
+        <v>1.110415746786783</v>
       </c>
       <c r="D23">
-        <v>0.8449307165168801</v>
+        <v>1.113035680293403</v>
       </c>
       <c r="E23">
-        <v>0.8488815242637867</v>
+        <v>1.109872957988028</v>
       </c>
       <c r="F23">
-        <v>0.8485360752040605</v>
+        <v>1.122823897189455</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044923609578788</v>
+        <v>1.023948818288664</v>
       </c>
       <c r="J23">
-        <v>0.8553523262856808</v>
+        <v>1.116612638168607</v>
       </c>
       <c r="K23">
-        <v>0.8611651621539327</v>
+        <v>1.116406820780211</v>
       </c>
       <c r="L23">
-        <v>0.8650166867681133</v>
+        <v>1.113254362070879</v>
       </c>
       <c r="M23">
-        <v>0.8646798690365216</v>
+        <v>1.1261636740746</v>
       </c>
       <c r="N23">
-        <v>0.8565670246992898</v>
+        <v>1.118198356192066</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.8214189994278712</v>
+        <v>1.116622444653475</v>
       </c>
       <c r="D24">
-        <v>0.8449307165168801</v>
+        <v>1.11886769212567</v>
       </c>
       <c r="E24">
-        <v>0.8488815242637867</v>
+        <v>1.115542796106206</v>
       </c>
       <c r="F24">
-        <v>0.8485360752040605</v>
+        <v>1.128809656150222</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044923609578788</v>
+        <v>1.023844704313072</v>
       </c>
       <c r="J24">
-        <v>0.8553523262856808</v>
+        <v>1.12231482872387</v>
       </c>
       <c r="K24">
-        <v>0.8611651621539327</v>
+        <v>1.12197195138787</v>
       </c>
       <c r="L24">
-        <v>0.8650166867681133</v>
+        <v>1.118656891046031</v>
       </c>
       <c r="M24">
-        <v>0.8646798690365216</v>
+        <v>1.131884881015936</v>
       </c>
       <c r="N24">
-        <v>0.8565670246992898</v>
+        <v>1.123908644511969</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.8214189994278712</v>
+        <v>1.123697798587808</v>
       </c>
       <c r="D25">
-        <v>0.8449307165168801</v>
+        <v>1.125513024928247</v>
       </c>
       <c r="E25">
-        <v>0.8488815242637867</v>
+        <v>1.122001772998814</v>
       </c>
       <c r="F25">
-        <v>0.8485360752040605</v>
+        <v>1.135632050216929</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044923609578788</v>
+        <v>1.02371141742819</v>
       </c>
       <c r="J25">
-        <v>0.8553523262856808</v>
+        <v>1.128808519098924</v>
       </c>
       <c r="K25">
-        <v>0.8611651621539327</v>
+        <v>1.12830795879785</v>
       </c>
       <c r="L25">
-        <v>0.8650166867681133</v>
+        <v>1.124805950663286</v>
       </c>
       <c r="M25">
-        <v>0.8646798690365216</v>
+        <v>1.138400689581398</v>
       </c>
       <c r="N25">
-        <v>0.8565670246992898</v>
+        <v>1.130411556672191</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_132/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_132/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.129247026424492</v>
+        <v>0.9211548577842669</v>
       </c>
       <c r="D2">
-        <v>1.130722603127266</v>
+        <v>0.9372930790956197</v>
       </c>
       <c r="E2">
-        <v>1.127063990637531</v>
+        <v>0.9387638939097535</v>
       </c>
       <c r="F2">
-        <v>1.140981927338763</v>
+        <v>0.9429376893739664</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02359499962809</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>1.133896276542335</v>
+        <v>0.9459798426808201</v>
       </c>
       <c r="K2">
-        <v>1.133270882220993</v>
+        <v>0.9497011328626291</v>
       </c>
       <c r="L2">
-        <v>1.129620971002904</v>
+        <v>0.9511478297287895</v>
       </c>
       <c r="M2">
-        <v>1.143506125943593</v>
+        <v>0.9552537106274001</v>
       </c>
       <c r="N2">
-        <v>1.135506539314746</v>
+        <v>0.9473232425628315</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.133225707344483</v>
+        <v>0.9548872257090749</v>
       </c>
       <c r="D3">
-        <v>1.13445635675796</v>
+        <v>0.9686653117937285</v>
       </c>
       <c r="E3">
-        <v>1.130691390990534</v>
+        <v>0.9693133699795943</v>
       </c>
       <c r="F3">
-        <v>1.144817092886285</v>
+        <v>0.9750176694521456</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023504579208684</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.13754103835214</v>
+        <v>0.9766881117004438</v>
       </c>
       <c r="K3">
-        <v>1.136825465177157</v>
+        <v>0.9797154724465302</v>
       </c>
       <c r="L3">
-        <v>1.133068768889232</v>
+        <v>0.9803545561207692</v>
       </c>
       <c r="M3">
-        <v>1.147163744512368</v>
+        <v>0.9859805086244916</v>
       </c>
       <c r="N3">
-        <v>1.139156477104381</v>
+        <v>0.9780751208467507</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.135778047712897</v>
+        <v>0.9739141511971843</v>
       </c>
       <c r="D4">
-        <v>1.136850916933997</v>
+        <v>0.9863805688012199</v>
       </c>
       <c r="E4">
-        <v>1.13301740081249</v>
+        <v>0.9865656360145318</v>
       </c>
       <c r="F4">
-        <v>1.147277086463472</v>
+        <v>0.9931374290622289</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023443335729026</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.139877754619948</v>
+        <v>0.9940095217140601</v>
       </c>
       <c r="K4">
-        <v>1.139104018246758</v>
+        <v>0.9966461960003375</v>
       </c>
       <c r="L4">
-        <v>1.135278475611616</v>
+        <v>0.9968289526412397</v>
       </c>
       <c r="M4">
-        <v>1.149508788926257</v>
+        <v>1.003319391057351</v>
       </c>
       <c r="N4">
-        <v>1.141496511777315</v>
+        <v>0.9954211292493802</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.136845932583763</v>
+        <v>0.9814051706834694</v>
       </c>
       <c r="D5">
-        <v>1.137852628575423</v>
+        <v>0.993358287420618</v>
       </c>
       <c r="E5">
-        <v>1.133990353537638</v>
+        <v>0.9933610807202359</v>
       </c>
       <c r="F5">
-        <v>1.148306265106009</v>
+        <v>1.000275581028528</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023416932628352</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.140855084841424</v>
+        <v>1.000828094108587</v>
       </c>
       <c r="K5">
-        <v>1.140056938218033</v>
+        <v>1.003310907375278</v>
       </c>
       <c r="L5">
-        <v>1.136202508391054</v>
+        <v>1.003313667261429</v>
       </c>
       <c r="M5">
-        <v>1.150489622383769</v>
+        <v>1.010146164435022</v>
       </c>
       <c r="N5">
-        <v>1.142475229919806</v>
+        <v>1.002249384798808</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.137024940099218</v>
+        <v>0.9826365940549501</v>
       </c>
       <c r="D6">
-        <v>1.138020534239541</v>
+        <v>0.9945054801310514</v>
       </c>
       <c r="E6">
-        <v>1.134153433827011</v>
+        <v>0.9944783050924081</v>
       </c>
       <c r="F6">
-        <v>1.148478780285696</v>
+        <v>1.001449214189459</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023412460900047</v>
+        <v>1.045370270238388</v>
       </c>
       <c r="J6">
-        <v>1.141018892970115</v>
+        <v>1.001948896741563</v>
       </c>
       <c r="K6">
-        <v>1.140216650092962</v>
+        <v>1.004406409915892</v>
       </c>
       <c r="L6">
-        <v>1.136357373131804</v>
+        <v>1.004379557628085</v>
       </c>
       <c r="M6">
-        <v>1.150654018841646</v>
+        <v>1.011268385205034</v>
       </c>
       <c r="N6">
-        <v>1.142639270674829</v>
+        <v>1.003371779100081</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.135792336721854</v>
+        <v>0.9740160801549274</v>
       </c>
       <c r="D7">
-        <v>1.136864321128302</v>
+        <v>0.9864755024912856</v>
       </c>
       <c r="E7">
-        <v>1.133030420500042</v>
+        <v>0.9866580897631216</v>
       </c>
       <c r="F7">
-        <v>1.147290857830439</v>
+        <v>0.993234541099688</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02344298551034</v>
+        <v>1.045357539874438</v>
       </c>
       <c r="J7">
-        <v>1.139890833281398</v>
+        <v>0.9941023057826232</v>
       </c>
       <c r="K7">
-        <v>1.13911677057864</v>
+        <v>0.99673688691875</v>
       </c>
       <c r="L7">
-        <v>1.135290841737638</v>
+        <v>0.9969171958890508</v>
       </c>
       <c r="M7">
-        <v>1.149521914390006</v>
+        <v>1.003412281775651</v>
       </c>
       <c r="N7">
-        <v>1.141509609011964</v>
+        <v>0.9955140450819626</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.130596332553638</v>
+        <v>0.9332614136582177</v>
       </c>
       <c r="D8">
-        <v>1.131988982407889</v>
+        <v>0.9485467952280208</v>
       </c>
       <c r="E8">
-        <v>1.128294369322829</v>
+        <v>0.9497218599358395</v>
       </c>
       <c r="F8">
-        <v>1.142282620110822</v>
+        <v>0.9544441415995119</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.023565007130014</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.135132633570558</v>
+        <v>0.9570001026673109</v>
       </c>
       <c r="K8">
-        <v>1.134476721655371</v>
+        <v>0.9604719882733196</v>
       </c>
       <c r="L8">
-        <v>1.130790667433168</v>
+        <v>0.961628883867766</v>
       </c>
       <c r="M8">
-        <v>1.144746826078858</v>
+        <v>0.966278723838828</v>
       </c>
       <c r="N8">
-        <v>1.136744652111761</v>
+        <v>0.9583591525825448</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.121262506868626</v>
+        <v>0.8214189994278644</v>
       </c>
       <c r="D9">
-        <v>1.123226112099651</v>
+        <v>0.8449307165168738</v>
       </c>
       <c r="E9">
-        <v>1.119779189702401</v>
+        <v>0.8488815242637803</v>
       </c>
       <c r="F9">
-        <v>1.133283969947179</v>
+        <v>0.8485360752040538</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023759139049229</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.126574254515701</v>
+        <v>0.8553523262856746</v>
       </c>
       <c r="K9">
-        <v>1.126128148900325</v>
+        <v>0.8611651621539265</v>
       </c>
       <c r="L9">
-        <v>1.122690686595267</v>
+        <v>0.8650166867681071</v>
       </c>
       <c r="M9">
-        <v>1.136158758830101</v>
+        <v>0.8646798690365151</v>
       </c>
       <c r="N9">
-        <v>1.128174119176986</v>
+        <v>0.8565670246992835</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.114908459795777</v>
+        <v>0.8214189994278644</v>
       </c>
       <c r="D10">
-        <v>1.11725740358316</v>
+        <v>0.8449307165168738</v>
       </c>
       <c r="E10">
-        <v>1.113977409134183</v>
+        <v>0.8488815242637803</v>
       </c>
       <c r="F10">
-        <v>1.127156767337608</v>
+        <v>0.8485360752040538</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023874603872166</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J10">
-        <v>1.120740681761561</v>
+        <v>0.8553523262856746</v>
       </c>
       <c r="K10">
-        <v>1.120435767421265</v>
+        <v>0.8611651621539265</v>
       </c>
       <c r="L10">
-        <v>1.117165735317105</v>
+        <v>0.8650166867681071</v>
       </c>
       <c r="M10">
-        <v>1.130305446719623</v>
+        <v>0.8646798690365151</v>
       </c>
       <c r="N10">
-        <v>1.122332262080415</v>
+        <v>0.8565670246992835</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.112123128571422</v>
+        <v>0.8214189994278644</v>
       </c>
       <c r="D11">
-        <v>1.114640213447459</v>
+        <v>0.8449307165168738</v>
       </c>
       <c r="E11">
-        <v>1.111432994774481</v>
+        <v>0.8488815242637803</v>
       </c>
       <c r="F11">
-        <v>1.124470582955494</v>
+        <v>0.8485360752040538</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023921309042974</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J11">
-        <v>1.118181747421177</v>
+        <v>0.8553523262856746</v>
       </c>
       <c r="K11">
-        <v>1.117938338832568</v>
+        <v>0.8611651621539265</v>
       </c>
       <c r="L11">
-        <v>1.114741274509411</v>
+        <v>0.8650166867681071</v>
       </c>
       <c r="M11">
-        <v>1.127737978669278</v>
+        <v>0.8646798690365151</v>
       </c>
       <c r="N11">
-        <v>1.119769693759755</v>
+        <v>0.8565670246992835</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.111083180531546</v>
+        <v>0.8214189994278644</v>
       </c>
       <c r="D12">
-        <v>1.113662928943056</v>
+        <v>0.8449307165168738</v>
       </c>
       <c r="E12">
-        <v>1.110482822726677</v>
+        <v>0.8488815242637803</v>
       </c>
       <c r="F12">
-        <v>1.123467611216251</v>
+        <v>0.8485360752040538</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023938164268118</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J12">
-        <v>1.117226064858701</v>
+        <v>0.8553523262856746</v>
       </c>
       <c r="K12">
-        <v>1.117005562577924</v>
+        <v>0.8611651621539265</v>
       </c>
       <c r="L12">
-        <v>1.113835678015827</v>
+        <v>0.8650166867681071</v>
       </c>
       <c r="M12">
-        <v>1.126779128449706</v>
+        <v>0.8646798690365151</v>
       </c>
       <c r="N12">
-        <v>1.118812654018421</v>
+        <v>0.8565670246992835</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.111306499163177</v>
+        <v>0.8214189994278644</v>
       </c>
       <c r="D13">
-        <v>1.113872796351518</v>
+        <v>0.8449307165168738</v>
       </c>
       <c r="E13">
-        <v>1.110686870689612</v>
+        <v>0.8488815242637803</v>
       </c>
       <c r="F13">
-        <v>1.123682991404904</v>
+        <v>0.8485360752040538</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023934571058996</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J13">
-        <v>1.117431300211458</v>
+        <v>0.8553523262856746</v>
       </c>
       <c r="K13">
-        <v>1.117205881638883</v>
+        <v>0.8611651621539265</v>
       </c>
       <c r="L13">
-        <v>1.114030163379013</v>
+        <v>0.8650166867681071</v>
       </c>
       <c r="M13">
-        <v>1.126985043176906</v>
+        <v>0.8646798690365151</v>
       </c>
       <c r="N13">
-        <v>1.11901818082892</v>
+        <v>0.8565670246992835</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.112037276777107</v>
+        <v>0.8214189994278644</v>
       </c>
       <c r="D14">
-        <v>1.114559537098778</v>
+        <v>0.8449307165168738</v>
       </c>
       <c r="E14">
-        <v>1.11135455787676</v>
+        <v>0.8488815242637803</v>
       </c>
       <c r="F14">
-        <v>1.124387784538379</v>
+        <v>0.8485360752040538</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023922712353274</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J14">
-        <v>1.118102857435525</v>
+        <v>0.8553523262856746</v>
       </c>
       <c r="K14">
-        <v>1.117861341029695</v>
+        <v>0.8611651621539265</v>
       </c>
       <c r="L14">
-        <v>1.114666521803922</v>
+        <v>0.8650166867681071</v>
       </c>
       <c r="M14">
-        <v>1.127658826799748</v>
+        <v>0.8646798690365151</v>
       </c>
       <c r="N14">
-        <v>1.119690691741274</v>
+        <v>0.8565670246992835</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.112486816273384</v>
+        <v>0.8214189994278644</v>
       </c>
       <c r="D15">
-        <v>1.114981972111548</v>
+        <v>0.8449307165168738</v>
       </c>
       <c r="E15">
-        <v>1.111765264183705</v>
+        <v>0.8488815242637803</v>
       </c>
       <c r="F15">
-        <v>1.124821334163844</v>
+        <v>0.8485360752040538</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023915340507297</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J15">
-        <v>1.118515932557203</v>
+        <v>0.8553523262856746</v>
       </c>
       <c r="K15">
-        <v>1.118264505889456</v>
+        <v>0.8611651621539265</v>
       </c>
       <c r="L15">
-        <v>1.115057928211831</v>
+        <v>0.8650166867681071</v>
       </c>
       <c r="M15">
-        <v>1.128073273966436</v>
+        <v>0.8646798690365151</v>
       </c>
       <c r="N15">
-        <v>1.120104353477005</v>
+        <v>0.8565670246992835</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.11509257622649</v>
+        <v>0.8214189994278644</v>
       </c>
       <c r="D16">
-        <v>1.117430389432967</v>
+        <v>0.8449307165168738</v>
       </c>
       <c r="E16">
-        <v>1.114145576023771</v>
+        <v>0.8488815242637803</v>
       </c>
       <c r="F16">
-        <v>1.127334324005294</v>
+        <v>0.8485360752040538</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023871434968932</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J16">
-        <v>1.120909796084229</v>
+        <v>0.8553523262856746</v>
       </c>
       <c r="K16">
-        <v>1.120600807997515</v>
+        <v>0.8611651621539265</v>
       </c>
       <c r="L16">
-        <v>1.117325943637882</v>
+        <v>0.8650166867681071</v>
       </c>
       <c r="M16">
-        <v>1.130475127691015</v>
+        <v>0.8646798690365151</v>
       </c>
       <c r="N16">
-        <v>1.122501616564819</v>
+        <v>0.8565670246992835</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.116717830811897</v>
+        <v>0.8214189994278644</v>
       </c>
       <c r="D17">
-        <v>1.118957302163238</v>
+        <v>0.8449307165168738</v>
       </c>
       <c r="E17">
-        <v>1.115629904598439</v>
+        <v>0.8488815242637803</v>
       </c>
       <c r="F17">
-        <v>1.128901640234791</v>
+        <v>0.8485360752040538</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023843013862359</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J17">
-        <v>1.122402420768214</v>
+        <v>0.8553523262856746</v>
       </c>
       <c r="K17">
-        <v>1.122057428110147</v>
+        <v>0.8611651621539265</v>
       </c>
       <c r="L17">
-        <v>1.118739858982833</v>
+        <v>0.8650166867681071</v>
       </c>
       <c r="M17">
-        <v>1.131972768117045</v>
+        <v>0.8646798690365151</v>
       </c>
       <c r="N17">
-        <v>1.123996360947062</v>
+        <v>0.8565670246992835</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.1176625521672</v>
+        <v>0.8214189994278644</v>
       </c>
       <c r="D18">
-        <v>1.1198447854996</v>
+        <v>0.8449307165168738</v>
       </c>
       <c r="E18">
-        <v>1.116492596651915</v>
+        <v>0.8488815242637803</v>
       </c>
       <c r="F18">
-        <v>1.129812655341854</v>
+        <v>0.8485360752040538</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023826118601775</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J18">
-        <v>1.123269879347639</v>
+        <v>0.8553523262856746</v>
       </c>
       <c r="K18">
-        <v>1.122903921094693</v>
+        <v>0.8611651621539265</v>
       </c>
       <c r="L18">
-        <v>1.11956148788879</v>
+        <v>0.8650166867681071</v>
       </c>
       <c r="M18">
-        <v>1.132843153594855</v>
+        <v>0.8646798690365151</v>
       </c>
       <c r="N18">
-        <v>1.124865051417169</v>
+        <v>0.8565670246992835</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.11798413172366</v>
+        <v>0.8214189994278644</v>
       </c>
       <c r="D19">
-        <v>1.120146868805908</v>
+        <v>0.8449307165168738</v>
       </c>
       <c r="E19">
-        <v>1.116786234623622</v>
+        <v>0.8488815242637803</v>
       </c>
       <c r="F19">
-        <v>1.130122756596417</v>
+        <v>0.8485360752040538</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023820303822167</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J19">
-        <v>1.123565130407845</v>
+        <v>0.8553523262856746</v>
       </c>
       <c r="K19">
-        <v>1.123192029264545</v>
+        <v>0.8611651621539265</v>
       </c>
       <c r="L19">
-        <v>1.11984112549347</v>
+        <v>0.8650166867681071</v>
       </c>
       <c r="M19">
-        <v>1.133139402869379</v>
+        <v>0.8646798690365151</v>
       </c>
       <c r="N19">
-        <v>1.125160721767746</v>
+        <v>0.8565670246992835</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.116543795541704</v>
+        <v>0.8214189994278644</v>
       </c>
       <c r="D20">
-        <v>1.118793805201203</v>
+        <v>0.8449307165168738</v>
       </c>
       <c r="E20">
-        <v>1.115470971575038</v>
+        <v>0.8488815242637803</v>
       </c>
       <c r="F20">
-        <v>1.128733812004513</v>
+        <v>0.8485360752040538</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023846096030143</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J20">
-        <v>1.122242605172769</v>
+        <v>0.8553523262856746</v>
       </c>
       <c r="K20">
-        <v>1.121901471782342</v>
+        <v>0.8611651621539265</v>
       </c>
       <c r="L20">
-        <v>1.118588479788393</v>
+        <v>0.8650166867681071</v>
       </c>
       <c r="M20">
-        <v>1.13181241424466</v>
+        <v>0.8646798690365151</v>
       </c>
       <c r="N20">
-        <v>1.123836318395141</v>
+        <v>0.8565670246992835</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.111822230749608</v>
+        <v>0.8214189994278644</v>
       </c>
       <c r="D21">
-        <v>1.114357452952329</v>
+        <v>0.8449307165168738</v>
       </c>
       <c r="E21">
-        <v>1.111158082263437</v>
+        <v>0.8488815242637803</v>
       </c>
       <c r="F21">
-        <v>1.124180386101842</v>
+        <v>0.8485360752040538</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02392621804881</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J21">
-        <v>1.117905245458828</v>
+        <v>0.8553523262856746</v>
       </c>
       <c r="K21">
-        <v>1.117668467757861</v>
+        <v>0.8611651621539265</v>
       </c>
       <c r="L21">
-        <v>1.114479271137417</v>
+        <v>0.8650166867681071</v>
       </c>
       <c r="M21">
-        <v>1.127460559144061</v>
+        <v>0.8646798690365151</v>
       </c>
       <c r="N21">
-        <v>1.119492799132904</v>
+        <v>0.8565670246992835</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.10882250157018</v>
+        <v>0.8214189994278644</v>
       </c>
       <c r="D22">
-        <v>1.111538262170433</v>
+        <v>0.8449307165168738</v>
       </c>
       <c r="E22">
-        <v>1.108416985200755</v>
+        <v>0.8488815242637803</v>
       </c>
       <c r="F22">
-        <v>1.121287238534612</v>
+        <v>0.8485360752040538</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023973741382756</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J22">
-        <v>1.115148083048271</v>
+        <v>0.8553523262856746</v>
       </c>
       <c r="K22">
-        <v>1.11497726954908</v>
+        <v>0.8611651621539265</v>
       </c>
       <c r="L22">
-        <v>1.111866352336078</v>
+        <v>0.8650166867681071</v>
       </c>
       <c r="M22">
-        <v>1.124694295365068</v>
+        <v>0.8646798690365151</v>
       </c>
       <c r="N22">
-        <v>1.116731721235472</v>
+        <v>0.8565670246992835</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.110415746786783</v>
+        <v>0.8214189994278644</v>
       </c>
       <c r="D23">
-        <v>1.113035680293403</v>
+        <v>0.8449307165168738</v>
       </c>
       <c r="E23">
-        <v>1.109872957988028</v>
+        <v>0.8488815242637803</v>
       </c>
       <c r="F23">
-        <v>1.122823897189455</v>
+        <v>0.8485360752040538</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023948818288664</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J23">
-        <v>1.116612638168607</v>
+        <v>0.8553523262856746</v>
       </c>
       <c r="K23">
-        <v>1.116406820780211</v>
+        <v>0.8611651621539265</v>
       </c>
       <c r="L23">
-        <v>1.113254362070879</v>
+        <v>0.8650166867681071</v>
       </c>
       <c r="M23">
-        <v>1.1261636740746</v>
+        <v>0.8646798690365151</v>
       </c>
       <c r="N23">
-        <v>1.118198356192066</v>
+        <v>0.8565670246992835</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.116622444653475</v>
+        <v>0.8214189994278644</v>
       </c>
       <c r="D24">
-        <v>1.11886769212567</v>
+        <v>0.8449307165168738</v>
       </c>
       <c r="E24">
-        <v>1.115542796106206</v>
+        <v>0.8488815242637803</v>
       </c>
       <c r="F24">
-        <v>1.128809656150222</v>
+        <v>0.8485360752040538</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023844704313072</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J24">
-        <v>1.12231482872387</v>
+        <v>0.8553523262856746</v>
       </c>
       <c r="K24">
-        <v>1.12197195138787</v>
+        <v>0.8611651621539265</v>
       </c>
       <c r="L24">
-        <v>1.118656891046031</v>
+        <v>0.8650166867681071</v>
       </c>
       <c r="M24">
-        <v>1.131884881015936</v>
+        <v>0.8646798690365151</v>
       </c>
       <c r="N24">
-        <v>1.123908644511969</v>
+        <v>0.8565670246992835</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.123697798587808</v>
+        <v>0.8214189994278644</v>
       </c>
       <c r="D25">
-        <v>1.125513024928247</v>
+        <v>0.8449307165168738</v>
       </c>
       <c r="E25">
-        <v>1.122001772998814</v>
+        <v>0.8488815242637803</v>
       </c>
       <c r="F25">
-        <v>1.135632050216929</v>
+        <v>0.8485360752040538</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02371141742819</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J25">
-        <v>1.128808519098924</v>
+        <v>0.8553523262856746</v>
       </c>
       <c r="K25">
-        <v>1.12830795879785</v>
+        <v>0.8611651621539265</v>
       </c>
       <c r="L25">
-        <v>1.124805950663286</v>
+        <v>0.8650166867681071</v>
       </c>
       <c r="M25">
-        <v>1.138400689581398</v>
+        <v>0.8646798690365151</v>
       </c>
       <c r="N25">
-        <v>1.130411556672191</v>
+        <v>0.8565670246992835</v>
       </c>
     </row>
   </sheetData>
